--- a/biology/Virologie/Contagium_vivum_fluidum/Contagium_vivum_fluidum.xlsx
+++ b/biology/Virologie/Contagium_vivum_fluidum/Contagium_vivum_fluidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Contagium vivum fluidum (latin : « fluide vivant contagieux ») est une locution latine utilisée à l'origine pour décrire un virus, en soulignant sa capacité à passer à travers les filtres à mailles les plus fines alors disponibles, lui conférant des propriétés presque liquides. Martinus Beijerinck (1851-1931), microbiologiste et botaniste néerlandais, a d'abord utilisé cette expression alors qu'il étudiait le virus de la mosaïque du tabac, convaincu que ce virus avait une nature liquide[1].
-En 1892, Dmitri Ivanovski avait découvert que l'agent causal de la maladie de la mosaïque du tabac pourrait passer à travers un filtre de porcelaine de Chamberland. Enregistrant ces résultats, il avait estimé qu'ils pouvaient être dus à un filtre fissuré. C'est à Martinus Beijerinck qu'il revint en 1898 de mettre en avant l'idée que l'agent pathogène était assez petit pour passer à travers le filtre régulièrement utilisé pour piéger les bactéries[2].
-Dmitri Ivanovski, contrarié que Beijerinck ne l'ait pas cité, refit l'expérience de Beijerinck et démontra que les particules d'encre sont assez petites pour passer à travers le filtre, laissant ainsi en suspens la nature physique, fluide ou particules, de l'agent pathogène[3]. L'invention du microscope électronique en 1931 a permis au biochimiste et virologue américain, Wendell Meredith Stanley, de produire les premières images de virus en 1935. 
+Contagium vivum fluidum (latin : « fluide vivant contagieux ») est une locution latine utilisée à l'origine pour décrire un virus, en soulignant sa capacité à passer à travers les filtres à mailles les plus fines alors disponibles, lui conférant des propriétés presque liquides. Martinus Beijerinck (1851-1931), microbiologiste et botaniste néerlandais, a d'abord utilisé cette expression alors qu'il étudiait le virus de la mosaïque du tabac, convaincu que ce virus avait une nature liquide.
+En 1892, Dmitri Ivanovski avait découvert que l'agent causal de la maladie de la mosaïque du tabac pourrait passer à travers un filtre de porcelaine de Chamberland. Enregistrant ces résultats, il avait estimé qu'ils pouvaient être dus à un filtre fissuré. C'est à Martinus Beijerinck qu'il revint en 1898 de mettre en avant l'idée que l'agent pathogène était assez petit pour passer à travers le filtre régulièrement utilisé pour piéger les bactéries.
+Dmitri Ivanovski, contrarié que Beijerinck ne l'ait pas cité, refit l'expérience de Beijerinck et démontra que les particules d'encre sont assez petites pour passer à travers le filtre, laissant ainsi en suspens la nature physique, fluide ou particules, de l'agent pathogène. L'invention du microscope électronique en 1931 a permis au biochimiste et virologue américain, Wendell Meredith Stanley, de produire les premières images de virus en 1935. 
 Vers la fin du XIXe siècle, on avait découvert plus de 2 000 espèces de virus infectant les animaux, les plantes et les bactéries.
 </t>
         </is>
